--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N2">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O2">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P2">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q2">
-        <v>1856.763197587419</v>
+        <v>1052.685969086657</v>
       </c>
       <c r="R2">
-        <v>7427.052790349676</v>
+        <v>4210.743876346629</v>
       </c>
       <c r="S2">
-        <v>0.005467295211557537</v>
+        <v>0.001505796376549658</v>
       </c>
       <c r="T2">
-        <v>0.002731305355635707</v>
+        <v>0.0007374412371927103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N3">
         <v>195.733932</v>
       </c>
       <c r="O3">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P3">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q3">
-        <v>2064.698207298408</v>
+        <v>1438.951800340206</v>
       </c>
       <c r="R3">
-        <v>12388.18924379045</v>
+        <v>8633.710802041236</v>
       </c>
       <c r="S3">
-        <v>0.006079566116315457</v>
+        <v>0.002058323631749214</v>
       </c>
       <c r="T3">
-        <v>0.004555767756512804</v>
+        <v>0.001512049785594045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N4">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O4">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P4">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q4">
-        <v>2389.151728780234</v>
+        <v>1729.300084962101</v>
       </c>
       <c r="R4">
-        <v>14334.9103726814</v>
+        <v>10375.8005097726</v>
       </c>
       <c r="S4">
-        <v>0.007034929291692619</v>
+        <v>0.002473647296887821</v>
       </c>
       <c r="T4">
-        <v>0.005271676205713247</v>
+        <v>0.001817147608472016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N5">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O5">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P5">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q5">
-        <v>1083.256794974079</v>
+        <v>707.6546189155259</v>
       </c>
       <c r="R5">
-        <v>4333.027179896316</v>
+        <v>2830.618475662104</v>
       </c>
       <c r="S5">
-        <v>0.003189682289989544</v>
+        <v>0.001012252269246223</v>
       </c>
       <c r="T5">
-        <v>0.001593474649586905</v>
+        <v>0.0004957353978328197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N6">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O6">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P6">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q6">
-        <v>1449.694382699552</v>
+        <v>1492.448068781561</v>
       </c>
       <c r="R6">
-        <v>8698.166296197312</v>
+        <v>8954.688412689364</v>
       </c>
       <c r="S6">
-        <v>0.004268668814124295</v>
+        <v>0.002134846440586317</v>
       </c>
       <c r="T6">
-        <v>0.003198758492720393</v>
+        <v>0.001568263635986884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N7">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O7">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P7">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q7">
-        <v>3232.99985646209</v>
+        <v>1261.514802010571</v>
       </c>
       <c r="R7">
-        <v>19397.99913877254</v>
+        <v>7569.088812063424</v>
       </c>
       <c r="S7">
-        <v>0.009519665543332802</v>
+        <v>0.001804511956665874</v>
       </c>
       <c r="T7">
-        <v>0.007133631661429434</v>
+        <v>0.001325599082229731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N8">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O8">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P8">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q8">
-        <v>4883.277000791039</v>
+        <v>3972.500941163985</v>
       </c>
       <c r="R8">
-        <v>29299.66200474623</v>
+        <v>23835.00564698391</v>
       </c>
       <c r="S8">
-        <v>0.01437895634608888</v>
+        <v>0.005682395033948072</v>
       </c>
       <c r="T8">
-        <v>0.01077497710206954</v>
+        <v>0.004174301873724347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N9">
         <v>195.733932</v>
       </c>
       <c r="O9">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P9">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q9">
         <v>5430.144933061722</v>
       </c>
       <c r="R9">
-        <v>48871.30439755549</v>
+        <v>48871.3043975555</v>
       </c>
       <c r="S9">
-        <v>0.01598922545921153</v>
+        <v>0.007767456586733245</v>
       </c>
       <c r="T9">
-        <v>0.01797246622662846</v>
+        <v>0.008558990106380927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N10">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O10">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P10">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q10">
-        <v>6283.455910647094</v>
+        <v>6525.826710720978</v>
       </c>
       <c r="R10">
-        <v>56551.10319582384</v>
+        <v>58732.44039648879</v>
       </c>
       <c r="S10">
-        <v>0.0185018253576713</v>
+        <v>0.009334755571521913</v>
       </c>
       <c r="T10">
-        <v>0.02079671915440756</v>
+        <v>0.01028600284919547</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N11">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O11">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P11">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q11">
-        <v>2848.959414814381</v>
+        <v>2670.462723180415</v>
       </c>
       <c r="R11">
-        <v>17093.75648888629</v>
+        <v>16022.77633908249</v>
       </c>
       <c r="S11">
-        <v>0.0083888468851468</v>
+        <v>0.003819917060132276</v>
       </c>
       <c r="T11">
-        <v>0.00628624435074597</v>
+        <v>0.002806120807567825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N12">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O12">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P12">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q12">
-        <v>3812.688255783562</v>
+        <v>5632.022779801168</v>
       </c>
       <c r="R12">
-        <v>34314.19430205205</v>
+        <v>50688.20501821052</v>
       </c>
       <c r="S12">
-        <v>0.01122657551113257</v>
+        <v>0.008056229249286784</v>
       </c>
       <c r="T12">
-        <v>0.01261907587263917</v>
+        <v>0.008877189807169792</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N13">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O13">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P13">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q13">
-        <v>8502.771846800755</v>
+        <v>4760.554320513371</v>
       </c>
       <c r="R13">
-        <v>76524.94662120679</v>
+        <v>42844.98888462033</v>
       </c>
       <c r="S13">
-        <v>0.0250366680378968</v>
+        <v>0.006809652314845992</v>
       </c>
       <c r="T13">
-        <v>0.02814211807108996</v>
+        <v>0.007503581917690921</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N14">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O14">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P14">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q14">
-        <v>30778.96117367088</v>
+        <v>44468.53997149564</v>
       </c>
       <c r="R14">
-        <v>184673.7670420253</v>
+        <v>266811.2398289738</v>
       </c>
       <c r="S14">
-        <v>0.09062957907619955</v>
+        <v>0.06360925131131824</v>
       </c>
       <c r="T14">
-        <v>0.06791394422599177</v>
+        <v>0.04672751812373647</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N15">
         <v>195.733932</v>
       </c>
       <c r="O15">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P15">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q15">
-        <v>34225.83237343252</v>
+        <v>60785.54054064397</v>
       </c>
       <c r="R15">
-        <v>308032.4913608926</v>
+        <v>547069.8648657956</v>
       </c>
       <c r="S15">
-        <v>0.1007789952375058</v>
+        <v>0.08694962161614903</v>
       </c>
       <c r="T15">
-        <v>0.1132792262439547</v>
+        <v>0.09581012045014504</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N16">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O16">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P16">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q16">
-        <v>39604.1931430372</v>
+        <v>73050.70287729618</v>
       </c>
       <c r="R16">
-        <v>356437.7382873347</v>
+        <v>657456.3258956656</v>
       </c>
       <c r="S16">
-        <v>0.1166157406662691</v>
+        <v>0.1044941102354363</v>
       </c>
       <c r="T16">
-        <v>0.1310802994156502</v>
+        <v>0.1151424595288687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N17">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O17">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P17">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q17">
-        <v>17956.79647083945</v>
+        <v>29893.40471077192</v>
       </c>
       <c r="R17">
-        <v>107740.7788250367</v>
+        <v>179360.4282646315</v>
       </c>
       <c r="S17">
-        <v>0.05287432855600401</v>
+        <v>0.04276050200922486</v>
       </c>
       <c r="T17">
-        <v>0.03962176849039605</v>
+        <v>0.03141197375263866</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N18">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O18">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P18">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q18">
-        <v>24031.11348650991</v>
+        <v>63045.37967726154</v>
       </c>
       <c r="R18">
-        <v>216280.0213785892</v>
+        <v>567408.4170953538</v>
       </c>
       <c r="S18">
-        <v>0.0707603381324589</v>
+        <v>0.09018216929269522</v>
       </c>
       <c r="T18">
-        <v>0.07953717273639219</v>
+        <v>0.09937207709232561</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N19">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O19">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P19">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q19">
-        <v>53592.38980276331</v>
+        <v>53290.08179572545</v>
       </c>
       <c r="R19">
-        <v>482331.5082248698</v>
+        <v>479610.736161529</v>
       </c>
       <c r="S19">
-        <v>0.1578044074361711</v>
+        <v>0.07622787272795174</v>
       </c>
       <c r="T19">
-        <v>0.1773778467440259</v>
+        <v>0.0839957843631022</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N20">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O20">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P20">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q20">
-        <v>3121.147485497081</v>
+        <v>3957.106625473918</v>
       </c>
       <c r="R20">
-        <v>12484.58994198832</v>
+        <v>15828.42650189567</v>
       </c>
       <c r="S20">
-        <v>0.009190312864987529</v>
+        <v>0.005660374502216584</v>
       </c>
       <c r="T20">
-        <v>0.004591219200134829</v>
+        <v>0.002772083689996192</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N21">
         <v>195.733932</v>
       </c>
       <c r="O21">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P21">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q21">
-        <v>3470.67823532535</v>
+        <v>5409.101926003837</v>
       </c>
       <c r="R21">
-        <v>20824.0694119521</v>
+        <v>32454.61155602302</v>
       </c>
       <c r="S21">
-        <v>0.01021951669523968</v>
+        <v>0.007737355982460002</v>
       </c>
       <c r="T21">
-        <v>0.007658070289320864</v>
+        <v>0.005683881423642365</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N22">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O22">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P22">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q22">
-        <v>4016.072119720237</v>
+        <v>6500.537695561154</v>
       </c>
       <c r="R22">
-        <v>24096.43271832142</v>
+        <v>39003.22617336692</v>
       </c>
       <c r="S22">
-        <v>0.0118254454299536</v>
+        <v>0.009298581338642937</v>
       </c>
       <c r="T22">
-        <v>0.00886148484373007</v>
+        <v>0.006830761549132764</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N23">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O23">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P23">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q23">
-        <v>1820.912987813456</v>
+        <v>2660.114092227756</v>
       </c>
       <c r="R23">
-        <v>7283.651951253824</v>
+        <v>10640.45636891102</v>
       </c>
       <c r="S23">
-        <v>0.005361733188093696</v>
+        <v>0.003805114040572432</v>
       </c>
       <c r="T23">
-        <v>0.002678569567849996</v>
+        <v>0.001863497647782094</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N24">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O24">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P24">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q24">
-        <v>2436.8804719854</v>
+        <v>5610.197451643913</v>
       </c>
       <c r="R24">
-        <v>14621.2828319124</v>
+        <v>33661.18470986348</v>
       </c>
       <c r="S24">
-        <v>0.007175468014949481</v>
+        <v>0.008025009587373063</v>
       </c>
       <c r="T24">
-        <v>0.005376989935625131</v>
+        <v>0.005895192494906956</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N25">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O25">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P25">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q25">
-        <v>5434.548350441437</v>
+        <v>4742.106124488973</v>
       </c>
       <c r="R25">
-        <v>32607.29010264863</v>
+        <v>28452.63674693384</v>
       </c>
       <c r="S25">
-        <v>0.01600219145443693</v>
+        <v>0.006783263412986192</v>
       </c>
       <c r="T25">
-        <v>0.0119913603153396</v>
+        <v>0.004983002590568017</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N26">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O26">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P26">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q26">
-        <v>926.8580337226928</v>
+        <v>16696.42321867603</v>
       </c>
       <c r="R26">
-        <v>5561.148202336157</v>
+        <v>100178.5393120562</v>
       </c>
       <c r="S26">
-        <v>0.002729161422495898</v>
+        <v>0.02388310884948473</v>
       </c>
       <c r="T26">
-        <v>0.00204511726216093</v>
+        <v>0.01754459262778486</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N27">
         <v>195.733932</v>
       </c>
       <c r="O27">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P27">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q27">
-        <v>1030.654917726671</v>
+        <v>22822.90156351284</v>
       </c>
       <c r="R27">
-        <v>9275.894259540035</v>
+        <v>205406.1140716156</v>
       </c>
       <c r="S27">
-        <v>0.003034794476633822</v>
+        <v>0.03264662348117427</v>
       </c>
       <c r="T27">
-        <v>0.003411218471788914</v>
+        <v>0.03597343921552965</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N28">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O28">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P28">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q28">
-        <v>1192.615448474906</v>
+        <v>27428.05256126941</v>
       </c>
       <c r="R28">
-        <v>10733.53903627415</v>
+        <v>246852.4730514246</v>
       </c>
       <c r="S28">
-        <v>0.003511692142082867</v>
+        <v>0.03923398180979566</v>
       </c>
       <c r="T28">
-        <v>0.003947268651812054</v>
+        <v>0.04323207454001348</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N29">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O29">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P29">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q29">
-        <v>540.7395322736895</v>
+        <v>11223.95601065705</v>
       </c>
       <c r="R29">
-        <v>3244.437193642137</v>
+        <v>67343.7360639423</v>
       </c>
       <c r="S29">
-        <v>0.001592223854577241</v>
+        <v>0.01605511309898427</v>
       </c>
       <c r="T29">
-        <v>0.001193144701291566</v>
+        <v>0.0117941269995413</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N30">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O30">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P30">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q30">
-        <v>723.6576461627538</v>
+        <v>23671.39424295049</v>
       </c>
       <c r="R30">
-        <v>6512.918815464785</v>
+        <v>213042.5481865544</v>
       </c>
       <c r="S30">
-        <v>0.002130831755397471</v>
+        <v>0.03386033511004176</v>
       </c>
       <c r="T30">
-        <v>0.002395131762711224</v>
+        <v>0.03731083269915971</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N31">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O31">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P31">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q31">
-        <v>1613.847093630323</v>
+        <v>20008.61192181322</v>
       </c>
       <c r="R31">
-        <v>14524.62384267291</v>
+        <v>180077.507296319</v>
       </c>
       <c r="S31">
-        <v>0.004752021420208968</v>
+        <v>0.02862097170136635</v>
       </c>
       <c r="T31">
-        <v>0.005341443505239824</v>
+        <v>0.03153755813008394</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N32">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O32">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P32">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q32">
-        <v>10648.21417686873</v>
+        <v>25643.96747250474</v>
       </c>
       <c r="R32">
-        <v>63889.28506121237</v>
+        <v>153863.8048350284</v>
       </c>
       <c r="S32">
-        <v>0.03135398765791864</v>
+        <v>0.03668196825493754</v>
       </c>
       <c r="T32">
-        <v>0.02349534214731359</v>
+        <v>0.02694666736537946</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N33">
         <v>195.733932</v>
       </c>
       <c r="O33">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P33">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q33">
-        <v>11840.68531220188</v>
+        <v>35053.60026261424</v>
       </c>
       <c r="R33">
-        <v>106566.167809817</v>
+        <v>315482.4023635282</v>
       </c>
       <c r="S33">
-        <v>0.03486525486560497</v>
+        <v>0.05014181418819643</v>
       </c>
       <c r="T33">
-        <v>0.03918980423119126</v>
+        <v>0.05525145673627215</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N34">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O34">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P34">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q34">
-        <v>13701.36985811857</v>
+        <v>42126.63266277202</v>
       </c>
       <c r="R34">
-        <v>123312.3287230671</v>
+        <v>379139.6939649481</v>
       </c>
       <c r="S34">
-        <v>0.04034409660553583</v>
+        <v>0.06025931064216422</v>
       </c>
       <c r="T34">
-        <v>0.04534821999580361</v>
+        <v>0.06639996475609926</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N35">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O35">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P35">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q35">
-        <v>6212.289416561046</v>
+        <v>17238.82768664851</v>
       </c>
       <c r="R35">
-        <v>37273.73649936628</v>
+        <v>103432.9661198911</v>
       </c>
       <c r="S35">
-        <v>0.01829227347036249</v>
+        <v>0.02465898190800562</v>
       </c>
       <c r="T35">
-        <v>0.0137074501823327</v>
+        <v>0.01811455095391443</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N36">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O36">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P36">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q36">
-        <v>8313.745284291457</v>
+        <v>36356.79666505204</v>
       </c>
       <c r="R36">
-        <v>74823.70755862311</v>
+        <v>327211.1699854684</v>
       </c>
       <c r="S36">
-        <v>0.02448007362596151</v>
+        <v>0.05200594886686605</v>
       </c>
       <c r="T36">
-        <v>0.0275164858729603</v>
+        <v>0.05730555386491864</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N37">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O37">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P37">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q37">
-        <v>18540.6921841865</v>
+        <v>30731.14442373578</v>
       </c>
       <c r="R37">
-        <v>166866.2296576785</v>
+        <v>276580.2998136221</v>
       </c>
       <c r="S37">
-        <v>0.05459362708679096</v>
+        <v>0.04395883224380301</v>
       </c>
       <c r="T37">
-        <v>0.06136520630780345</v>
+        <v>0.04843840529542055</v>
       </c>
     </row>
   </sheetData>
